--- a/sparepart.xlsx
+++ b/sparepart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Id</t>
   </si>
@@ -23,36 +23,6 @@
   </si>
   <si>
     <t>Qty</t>
-  </si>
-  <si>
-    <t>Dao phay ngón phi 3</t>
-  </si>
-  <si>
-    <t>3S4</t>
-  </si>
-  <si>
-    <t>kim khâu 121</t>
-  </si>
-  <si>
-    <t>kh001</t>
-  </si>
-  <si>
-    <t>Mũi khoan  phi 5</t>
-  </si>
-  <si>
-    <t>5mm</t>
-  </si>
-  <si>
-    <t>khuy áo 1111</t>
-  </si>
-  <si>
-    <t>ka001</t>
-  </si>
-  <si>
-    <t>vật tư 1</t>
-  </si>
-  <si>
-    <t>p1234</t>
   </si>
 </sst>
 </file>
@@ -429,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -450,160 +420,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/sparepart.xlsx
+++ b/sparepart.xlsx
@@ -11,18 +11,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Code</t>
   </si>
   <si>
     <t>Qty</t>
+  </si>
+  <si>
+    <t>Export Qty</t>
+  </si>
+  <si>
+    <t>Request Date</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>24/06/2021 15:27:20</t>
+  </si>
+  <si>
+    <t>kh001</t>
+  </si>
+  <si>
+    <t>24/06/2021 15:24:41</t>
+  </si>
+  <si>
+    <t>24/06/2021 15:22:59</t>
+  </si>
+  <si>
+    <t>3S4</t>
+  </si>
+  <si>
+    <t>21/06/2021 11:01:04</t>
+  </si>
+  <si>
+    <t>21/06/2021 09:58:15</t>
+  </si>
+  <si>
+    <t>21/06/2021 09:23:47</t>
+  </si>
+  <si>
+    <t>p1234</t>
+  </si>
+  <si>
+    <t>18/06/2021 10:00:00</t>
+  </si>
+  <si>
+    <t>ka001</t>
+  </si>
+  <si>
+    <t>KV120</t>
+  </si>
+  <si>
+    <t>05/07/2021 13:55:19</t>
+  </si>
+  <si>
+    <t>05/07/2021 13:53:13</t>
+  </si>
+  <si>
+    <t>05/07/2021 13:51:42</t>
+  </si>
+  <si>
+    <t>05/07/2021 13:50:40</t>
   </si>
 </sst>
 </file>
@@ -399,11 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="4" width="30" customWidth="1"/>
+    <col min="1" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -420,6 +470,258 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>122</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/sparepart.xlsx
+++ b/sparepart.xlsx
@@ -11,69 +11,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Code</t>
   </si>
   <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Export Qty</t>
-  </si>
-  <si>
-    <t>Request Date</t>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Qty</t>
+  </si>
+  <si>
+    <t>Total Export</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>kh001</t>
+  </si>
+  <si>
+    <t>ka001</t>
+  </si>
+  <si>
+    <t>KV120</t>
   </si>
   <si>
     <t>5mm</t>
   </si>
   <si>
-    <t>24/06/2021 15:27:20</t>
-  </si>
-  <si>
-    <t>kh001</t>
-  </si>
-  <si>
-    <t>24/06/2021 15:24:41</t>
-  </si>
-  <si>
-    <t>24/06/2021 15:22:59</t>
-  </si>
-  <si>
     <t>3S4</t>
-  </si>
-  <si>
-    <t>21/06/2021 11:01:04</t>
-  </si>
-  <si>
-    <t>21/06/2021 09:58:15</t>
-  </si>
-  <si>
-    <t>21/06/2021 09:23:47</t>
-  </si>
-  <si>
-    <t>p1234</t>
-  </si>
-  <si>
-    <t>18/06/2021 10:00:00</t>
-  </si>
-  <si>
-    <t>ka001</t>
-  </si>
-  <si>
-    <t>KV120</t>
-  </si>
-  <si>
-    <t>05/07/2021 13:55:19</t>
-  </si>
-  <si>
-    <t>05/07/2021 13:53:13</t>
-  </si>
-  <si>
-    <t>05/07/2021 13:51:42</t>
-  </si>
-  <si>
-    <t>05/07/2021 13:50:40</t>
   </si>
 </sst>
 </file>
@@ -450,13 +417,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="30" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,257 +437,101 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="B4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
       <c r="B5">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
+      <c r="D7">
         <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>90</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>122</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/sparepart.xlsx
+++ b/sparepart.xlsx
@@ -11,36 +11,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Code</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Total Qty</t>
-  </si>
-  <si>
-    <t>Total Export</t>
-  </si>
-  <si>
-    <t>Money</t>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Export Qty</t>
+  </si>
+  <si>
+    <t>Request Date</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>24/06/2021 15:27:20</t>
   </si>
   <si>
     <t>kh001</t>
   </si>
   <si>
+    <t>24/06/2021 15:24:41</t>
+  </si>
+  <si>
+    <t>24/06/2021 15:22:59</t>
+  </si>
+  <si>
+    <t>3S4</t>
+  </si>
+  <si>
+    <t>21/06/2021 11:01:04</t>
+  </si>
+  <si>
+    <t>21/06/2021 09:58:15</t>
+  </si>
+  <si>
+    <t>21/06/2021 09:23:47</t>
+  </si>
+  <si>
+    <t>p1234</t>
+  </si>
+  <si>
+    <t>18/06/2021 10:00:00</t>
+  </si>
+  <si>
     <t>ka001</t>
   </si>
   <si>
+    <t>2mm</t>
+  </si>
+  <si>
+    <t>11/07/2021 16:04:12</t>
+  </si>
+  <si>
+    <t>11/07/2021 13:28:49</t>
+  </si>
+  <si>
+    <t>09/07/2021 12:47:12</t>
+  </si>
+  <si>
     <t>KV120</t>
   </si>
   <si>
-    <t>5mm</t>
-  </si>
-  <si>
-    <t>3S4</t>
+    <t>09/07/2021 12:38:56</t>
+  </si>
+  <si>
+    <t>09/07/2021 12:35:33</t>
+  </si>
+  <si>
+    <t>05/07/2021 13:55:19</t>
+  </si>
+  <si>
+    <t>05/07/2021 13:53:13</t>
+  </si>
+  <si>
+    <t>05/07/2021 13:51:42</t>
+  </si>
+  <si>
+    <t>05/07/2021 13:50:40</t>
   </si>
 </sst>
 </file>
@@ -417,14 +468,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="5" width="30" customWidth="1"/>
+    <col min="1" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,101 +487,327 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>282</v>
-      </c>
-      <c r="D2">
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>133</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>80</v>
-      </c>
-      <c r="E4">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>44</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>122</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
